--- a/pattern2.xlsx
+++ b/pattern2.xlsx
@@ -10,15 +10,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Verdana"/>
-      <color rgb="0f0f0f"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Verdana"/>
       <sz val="8"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <color rgb="0f0f0f"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,8 +39,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +372,7 @@
   <dimension ref="A1:D1000"/>
   <sheetData>
     <row r="1" spans="1:4" customFormat="false">
-      <c r="A1" s="0" t="str">
+      <c r="A1" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B1" s="0" t="str">
@@ -437,7 +442,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" customFormat="false">
-      <c r="A6" s="0" t="str">
+      <c r="A6" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B6" s="0" t="str">
@@ -507,7 +512,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" customFormat="false">
-      <c r="A11" s="0" t="str">
+      <c r="A11" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B11" s="0" t="str">
@@ -577,7 +582,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="false">
-      <c r="A16" s="0" t="str">
+      <c r="A16" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B16" s="0" t="str">
@@ -647,7 +652,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" customFormat="false">
-      <c r="A21" s="0" t="str">
+      <c r="A21" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B21" s="0" t="str">
@@ -717,7 +722,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" customFormat="false">
-      <c r="A26" s="0" t="str">
+      <c r="A26" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B26" s="0" t="str">
@@ -787,7 +792,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" customFormat="false">
-      <c r="A31" s="0" t="str">
+      <c r="A31" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B31" s="0" t="str">
@@ -857,7 +862,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" customFormat="false">
-      <c r="A36" s="0" t="str">
+      <c r="A36" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B36" s="0" t="str">
@@ -927,7 +932,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" customFormat="false">
-      <c r="A41" s="0" t="str">
+      <c r="A41" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B41" s="0" t="str">
@@ -997,7 +1002,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" customFormat="false">
-      <c r="A46" s="0" t="str">
+      <c r="A46" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B46" s="0" t="str">
@@ -1067,7 +1072,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" customFormat="false">
-      <c r="A51" s="0" t="str">
+      <c r="A51" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B51" s="0" t="str">
@@ -1137,7 +1142,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" customFormat="false">
-      <c r="A56" s="0" t="str">
+      <c r="A56" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B56" s="0" t="str">
@@ -1207,7 +1212,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" customFormat="false">
-      <c r="A61" s="0" t="str">
+      <c r="A61" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B61" s="0" t="str">
@@ -1277,7 +1282,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" customFormat="false">
-      <c r="A66" s="0" t="str">
+      <c r="A66" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B66" s="0" t="str">
@@ -1347,7 +1352,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" customFormat="false">
-      <c r="A71" s="0" t="str">
+      <c r="A71" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B71" s="0" t="str">
@@ -1417,7 +1422,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" customFormat="false">
-      <c r="A76" s="0" t="str">
+      <c r="A76" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B76" s="0" t="str">
@@ -1487,7 +1492,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" customFormat="false">
-      <c r="A81" s="0" t="str">
+      <c r="A81" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B81" s="0" t="str">
@@ -1557,7 +1562,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" customFormat="false">
-      <c r="A86" s="0" t="str">
+      <c r="A86" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B86" s="0" t="str">
@@ -1627,7 +1632,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" customFormat="false">
-      <c r="A91" s="0" t="str">
+      <c r="A91" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B91" s="0" t="str">
@@ -1697,7 +1702,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" customFormat="false">
-      <c r="A96" s="0" t="str">
+      <c r="A96" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B96" s="0" t="str">
@@ -1767,7 +1772,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" customFormat="false">
-      <c r="A101" s="0" t="str">
+      <c r="A101" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B101" s="0" t="str">
@@ -1837,7 +1842,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" customFormat="false">
-      <c r="A106" s="0" t="str">
+      <c r="A106" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B106" s="0" t="str">
@@ -1907,7 +1912,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" customFormat="false">
-      <c r="A111" s="0" t="str">
+      <c r="A111" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B111" s="0" t="str">
@@ -1977,7 +1982,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" customFormat="false">
-      <c r="A116" s="0" t="str">
+      <c r="A116" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B116" s="0" t="str">
@@ -2047,7 +2052,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" customFormat="false">
-      <c r="A121" s="0" t="str">
+      <c r="A121" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B121" s="0" t="str">
@@ -2117,7 +2122,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" customFormat="false">
-      <c r="A126" s="0" t="str">
+      <c r="A126" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B126" s="0" t="str">
@@ -2187,7 +2192,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" customFormat="false">
-      <c r="A131" s="0" t="str">
+      <c r="A131" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B131" s="0" t="str">
@@ -2257,7 +2262,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" customFormat="false">
-      <c r="A136" s="0" t="str">
+      <c r="A136" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B136" s="0" t="str">
@@ -2327,7 +2332,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" customFormat="false">
-      <c r="A141" s="0" t="str">
+      <c r="A141" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B141" s="0" t="str">
@@ -2397,7 +2402,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" customFormat="false">
-      <c r="A146" s="0" t="str">
+      <c r="A146" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B146" s="0" t="str">
@@ -2467,7 +2472,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" customFormat="false">
-      <c r="A151" s="0" t="str">
+      <c r="A151" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B151" s="0" t="str">
@@ -2537,7 +2542,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" customFormat="false">
-      <c r="A156" s="0" t="str">
+      <c r="A156" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B156" s="0" t="str">
@@ -2607,7 +2612,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" customFormat="false">
-      <c r="A161" s="0" t="str">
+      <c r="A161" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B161" s="0" t="str">
@@ -2677,7 +2682,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" customFormat="false">
-      <c r="A166" s="0" t="str">
+      <c r="A166" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B166" s="0" t="str">
@@ -2747,7 +2752,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" customFormat="false">
-      <c r="A171" s="0" t="str">
+      <c r="A171" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B171" s="0" t="str">
@@ -2817,7 +2822,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" customFormat="false">
-      <c r="A176" s="0" t="str">
+      <c r="A176" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B176" s="0" t="str">
@@ -2887,7 +2892,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" customFormat="false">
-      <c r="A181" s="0" t="str">
+      <c r="A181" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B181" s="0" t="str">
@@ -2957,7 +2962,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" customFormat="false">
-      <c r="A186" s="0" t="str">
+      <c r="A186" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B186" s="0" t="str">
@@ -3027,7 +3032,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" customFormat="false">
-      <c r="A191" s="0" t="str">
+      <c r="A191" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B191" s="0" t="str">
@@ -3097,7 +3102,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" customFormat="false">
-      <c r="A196" s="0" t="str">
+      <c r="A196" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B196" s="0" t="str">
@@ -3167,7 +3172,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" customFormat="false">
-      <c r="A201" s="0" t="str">
+      <c r="A201" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B201" s="0" t="str">
@@ -3237,7 +3242,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" customFormat="false">
-      <c r="A206" s="0" t="str">
+      <c r="A206" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B206" s="0" t="str">
@@ -3307,7 +3312,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" customFormat="false">
-      <c r="A211" s="0" t="str">
+      <c r="A211" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B211" s="0" t="str">
@@ -3377,7 +3382,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" customFormat="false">
-      <c r="A216" s="0" t="str">
+      <c r="A216" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B216" s="0" t="str">
@@ -3447,7 +3452,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" customFormat="false">
-      <c r="A221" s="0" t="str">
+      <c r="A221" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B221" s="0" t="str">
@@ -3517,7 +3522,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" customFormat="false">
-      <c r="A226" s="0" t="str">
+      <c r="A226" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B226" s="0" t="str">
@@ -3587,7 +3592,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" customFormat="false">
-      <c r="A231" s="0" t="str">
+      <c r="A231" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B231" s="0" t="str">
@@ -3657,7 +3662,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" customFormat="false">
-      <c r="A236" s="0" t="str">
+      <c r="A236" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B236" s="0" t="str">
@@ -3727,7 +3732,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" customFormat="false">
-      <c r="A241" s="0" t="str">
+      <c r="A241" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B241" s="0" t="str">
@@ -3797,7 +3802,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" customFormat="false">
-      <c r="A246" s="0" t="str">
+      <c r="A246" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B246" s="0" t="str">
@@ -3867,7 +3872,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" customFormat="false">
-      <c r="A251" s="0" t="str">
+      <c r="A251" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B251" s="0" t="str">
@@ -3937,7 +3942,7 @@
       </c>
     </row>
     <row r="256" spans="1:4" customFormat="false">
-      <c r="A256" s="0" t="str">
+      <c r="A256" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B256" s="0" t="str">
@@ -4007,7 +4012,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" customFormat="false">
-      <c r="A261" s="0" t="str">
+      <c r="A261" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B261" s="0" t="str">
@@ -4077,7 +4082,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" customFormat="false">
-      <c r="A266" s="0" t="str">
+      <c r="A266" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B266" s="0" t="str">
@@ -4147,7 +4152,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" customFormat="false">
-      <c r="A271" s="0" t="str">
+      <c r="A271" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B271" s="0" t="str">
@@ -4217,7 +4222,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" customFormat="false">
-      <c r="A276" s="0" t="str">
+      <c r="A276" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B276" s="0" t="str">
@@ -4287,7 +4292,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" customFormat="false">
-      <c r="A281" s="0" t="str">
+      <c r="A281" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B281" s="0" t="str">
@@ -4357,7 +4362,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" customFormat="false">
-      <c r="A286" s="0" t="str">
+      <c r="A286" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B286" s="0" t="str">
@@ -4427,7 +4432,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" customFormat="false">
-      <c r="A291" s="0" t="str">
+      <c r="A291" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B291" s="0" t="str">
@@ -4497,7 +4502,7 @@
       </c>
     </row>
     <row r="296" spans="1:4" customFormat="false">
-      <c r="A296" s="0" t="str">
+      <c r="A296" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B296" s="0" t="str">
@@ -4567,7 +4572,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" customFormat="false">
-      <c r="A301" s="0" t="str">
+      <c r="A301" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B301" s="0" t="str">
@@ -4637,7 +4642,7 @@
       </c>
     </row>
     <row r="306" spans="1:4" customFormat="false">
-      <c r="A306" s="0" t="str">
+      <c r="A306" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B306" s="0" t="str">
@@ -4707,7 +4712,7 @@
       </c>
     </row>
     <row r="311" spans="1:4" customFormat="false">
-      <c r="A311" s="0" t="str">
+      <c r="A311" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B311" s="0" t="str">
@@ -4777,7 +4782,7 @@
       </c>
     </row>
     <row r="316" spans="1:4" customFormat="false">
-      <c r="A316" s="0" t="str">
+      <c r="A316" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B316" s="0" t="str">
@@ -4847,7 +4852,7 @@
       </c>
     </row>
     <row r="321" spans="1:4" customFormat="false">
-      <c r="A321" s="0" t="str">
+      <c r="A321" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B321" s="0" t="str">
@@ -4917,7 +4922,7 @@
       </c>
     </row>
     <row r="326" spans="1:4" customFormat="false">
-      <c r="A326" s="0" t="str">
+      <c r="A326" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B326" s="0" t="str">
@@ -4987,7 +4992,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" customFormat="false">
-      <c r="A331" s="0" t="str">
+      <c r="A331" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B331" s="0" t="str">
@@ -5057,7 +5062,7 @@
       </c>
     </row>
     <row r="336" spans="1:4" customFormat="false">
-      <c r="A336" s="0" t="str">
+      <c r="A336" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B336" s="0" t="str">
@@ -5127,7 +5132,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" customFormat="false">
-      <c r="A341" s="0" t="str">
+      <c r="A341" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B341" s="0" t="str">
@@ -5197,7 +5202,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" customFormat="false">
-      <c r="A346" s="0" t="str">
+      <c r="A346" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B346" s="0" t="str">
@@ -5267,7 +5272,7 @@
       </c>
     </row>
     <row r="351" spans="1:4" customFormat="false">
-      <c r="A351" s="0" t="str">
+      <c r="A351" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B351" s="0" t="str">
@@ -5337,7 +5342,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" customFormat="false">
-      <c r="A356" s="0" t="str">
+      <c r="A356" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B356" s="0" t="str">
@@ -5407,7 +5412,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" customFormat="false">
-      <c r="A361" s="0" t="str">
+      <c r="A361" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B361" s="0" t="str">
@@ -5477,7 +5482,7 @@
       </c>
     </row>
     <row r="366" spans="1:4" customFormat="false">
-      <c r="A366" s="0" t="str">
+      <c r="A366" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B366" s="0" t="str">
@@ -5547,7 +5552,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" customFormat="false">
-      <c r="A371" s="0" t="str">
+      <c r="A371" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B371" s="0" t="str">
@@ -5617,7 +5622,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" customFormat="false">
-      <c r="A376" s="0" t="str">
+      <c r="A376" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B376" s="0" t="str">
@@ -5687,7 +5692,7 @@
       </c>
     </row>
     <row r="381" spans="1:4" customFormat="false">
-      <c r="A381" s="0" t="str">
+      <c r="A381" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B381" s="0" t="str">
@@ -5757,7 +5762,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" customFormat="false">
-      <c r="A386" s="0" t="str">
+      <c r="A386" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B386" s="0" t="str">
@@ -5827,7 +5832,7 @@
       </c>
     </row>
     <row r="391" spans="1:4" customFormat="false">
-      <c r="A391" s="0" t="str">
+      <c r="A391" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B391" s="0" t="str">
@@ -5897,7 +5902,7 @@
       </c>
     </row>
     <row r="396" spans="1:4" customFormat="false">
-      <c r="A396" s="0" t="str">
+      <c r="A396" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B396" s="0" t="str">
@@ -5967,7 +5972,7 @@
       </c>
     </row>
     <row r="401" spans="1:4" customFormat="false">
-      <c r="A401" s="0" t="str">
+      <c r="A401" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B401" s="0" t="str">
@@ -6037,7 +6042,7 @@
       </c>
     </row>
     <row r="406" spans="1:4" customFormat="false">
-      <c r="A406" s="0" t="str">
+      <c r="A406" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B406" s="0" t="str">
@@ -6107,7 +6112,7 @@
       </c>
     </row>
     <row r="411" spans="1:4" customFormat="false">
-      <c r="A411" s="0" t="str">
+      <c r="A411" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B411" s="0" t="str">
@@ -6177,7 +6182,7 @@
       </c>
     </row>
     <row r="416" spans="1:4" customFormat="false">
-      <c r="A416" s="0" t="str">
+      <c r="A416" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B416" s="0" t="str">
@@ -6247,7 +6252,7 @@
       </c>
     </row>
     <row r="421" spans="1:4" customFormat="false">
-      <c r="A421" s="0" t="str">
+      <c r="A421" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B421" s="0" t="str">
@@ -6317,7 +6322,7 @@
       </c>
     </row>
     <row r="426" spans="1:4" customFormat="false">
-      <c r="A426" s="0" t="str">
+      <c r="A426" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B426" s="0" t="str">
@@ -6387,7 +6392,7 @@
       </c>
     </row>
     <row r="431" spans="1:4" customFormat="false">
-      <c r="A431" s="0" t="str">
+      <c r="A431" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B431" s="0" t="str">
@@ -6457,7 +6462,7 @@
       </c>
     </row>
     <row r="436" spans="1:4" customFormat="false">
-      <c r="A436" s="0" t="str">
+      <c r="A436" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B436" s="0" t="str">
@@ -6527,7 +6532,7 @@
       </c>
     </row>
     <row r="441" spans="1:4" customFormat="false">
-      <c r="A441" s="0" t="str">
+      <c r="A441" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B441" s="0" t="str">
@@ -6597,7 +6602,7 @@
       </c>
     </row>
     <row r="446" spans="1:4" customFormat="false">
-      <c r="A446" s="0" t="str">
+      <c r="A446" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B446" s="0" t="str">
@@ -6667,7 +6672,7 @@
       </c>
     </row>
     <row r="451" spans="1:4" customFormat="false">
-      <c r="A451" s="0" t="str">
+      <c r="A451" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B451" s="0" t="str">
@@ -6737,7 +6742,7 @@
       </c>
     </row>
     <row r="456" spans="1:4" customFormat="false">
-      <c r="A456" s="0" t="str">
+      <c r="A456" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B456" s="0" t="str">
@@ -6807,7 +6812,7 @@
       </c>
     </row>
     <row r="461" spans="1:4" customFormat="false">
-      <c r="A461" s="0" t="str">
+      <c r="A461" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B461" s="0" t="str">
@@ -6877,7 +6882,7 @@
       </c>
     </row>
     <row r="466" spans="1:4" customFormat="false">
-      <c r="A466" s="0" t="str">
+      <c r="A466" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B466" s="0" t="str">
@@ -6947,7 +6952,7 @@
       </c>
     </row>
     <row r="471" spans="1:4" customFormat="false">
-      <c r="A471" s="0" t="str">
+      <c r="A471" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B471" s="0" t="str">
@@ -7017,7 +7022,7 @@
       </c>
     </row>
     <row r="476" spans="1:4" customFormat="false">
-      <c r="A476" s="0" t="str">
+      <c r="A476" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B476" s="0" t="str">
@@ -7087,7 +7092,7 @@
       </c>
     </row>
     <row r="481" spans="1:4" customFormat="false">
-      <c r="A481" s="0" t="str">
+      <c r="A481" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B481" s="0" t="str">
@@ -7157,7 +7162,7 @@
       </c>
     </row>
     <row r="486" spans="1:4" customFormat="false">
-      <c r="A486" s="0" t="str">
+      <c r="A486" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B486" s="0" t="str">
@@ -7227,7 +7232,7 @@
       </c>
     </row>
     <row r="491" spans="1:4" customFormat="false">
-      <c r="A491" s="0" t="str">
+      <c r="A491" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B491" s="0" t="str">
@@ -7297,7 +7302,7 @@
       </c>
     </row>
     <row r="496" spans="1:4" customFormat="false">
-      <c r="A496" s="0" t="str">
+      <c r="A496" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B496" s="0" t="str">
@@ -7367,7 +7372,7 @@
       </c>
     </row>
     <row r="501" spans="1:4" customFormat="false">
-      <c r="A501" s="0" t="str">
+      <c r="A501" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B501" s="0" t="str">
@@ -7437,7 +7442,7 @@
       </c>
     </row>
     <row r="506" spans="1:4" customFormat="false">
-      <c r="A506" s="0" t="str">
+      <c r="A506" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B506" s="0" t="str">
@@ -7507,7 +7512,7 @@
       </c>
     </row>
     <row r="511" spans="1:4" customFormat="false">
-      <c r="A511" s="0" t="str">
+      <c r="A511" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B511" s="0" t="str">
@@ -7577,7 +7582,7 @@
       </c>
     </row>
     <row r="516" spans="1:4" customFormat="false">
-      <c r="A516" s="0" t="str">
+      <c r="A516" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B516" s="0" t="str">
@@ -7647,7 +7652,7 @@
       </c>
     </row>
     <row r="521" spans="1:4" customFormat="false">
-      <c r="A521" s="0" t="str">
+      <c r="A521" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B521" s="0" t="str">
@@ -7717,7 +7722,7 @@
       </c>
     </row>
     <row r="526" spans="1:4" customFormat="false">
-      <c r="A526" s="0" t="str">
+      <c r="A526" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B526" s="0" t="str">
@@ -7787,7 +7792,7 @@
       </c>
     </row>
     <row r="531" spans="1:4" customFormat="false">
-      <c r="A531" s="0" t="str">
+      <c r="A531" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B531" s="0" t="str">
@@ -7857,7 +7862,7 @@
       </c>
     </row>
     <row r="536" spans="1:4" customFormat="false">
-      <c r="A536" s="0" t="str">
+      <c r="A536" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B536" s="0" t="str">
@@ -7927,7 +7932,7 @@
       </c>
     </row>
     <row r="541" spans="1:4" customFormat="false">
-      <c r="A541" s="0" t="str">
+      <c r="A541" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B541" s="0" t="str">
@@ -7997,7 +8002,7 @@
       </c>
     </row>
     <row r="546" spans="1:4" customFormat="false">
-      <c r="A546" s="0" t="str">
+      <c r="A546" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B546" s="0" t="str">
@@ -8067,7 +8072,7 @@
       </c>
     </row>
     <row r="551" spans="1:4" customFormat="false">
-      <c r="A551" s="0" t="str">
+      <c r="A551" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B551" s="0" t="str">
@@ -8137,7 +8142,7 @@
       </c>
     </row>
     <row r="556" spans="1:4" customFormat="false">
-      <c r="A556" s="0" t="str">
+      <c r="A556" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B556" s="0" t="str">
@@ -8207,7 +8212,7 @@
       </c>
     </row>
     <row r="561" spans="1:4" customFormat="false">
-      <c r="A561" s="0" t="str">
+      <c r="A561" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B561" s="0" t="str">
@@ -8277,7 +8282,7 @@
       </c>
     </row>
     <row r="566" spans="1:4" customFormat="false">
-      <c r="A566" s="0" t="str">
+      <c r="A566" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B566" s="0" t="str">
@@ -8347,7 +8352,7 @@
       </c>
     </row>
     <row r="571" spans="1:4" customFormat="false">
-      <c r="A571" s="0" t="str">
+      <c r="A571" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B571" s="0" t="str">
@@ -8417,7 +8422,7 @@
       </c>
     </row>
     <row r="576" spans="1:4" customFormat="false">
-      <c r="A576" s="0" t="str">
+      <c r="A576" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B576" s="0" t="str">
@@ -8487,7 +8492,7 @@
       </c>
     </row>
     <row r="581" spans="1:4" customFormat="false">
-      <c r="A581" s="0" t="str">
+      <c r="A581" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B581" s="0" t="str">
@@ -8557,7 +8562,7 @@
       </c>
     </row>
     <row r="586" spans="1:4" customFormat="false">
-      <c r="A586" s="0" t="str">
+      <c r="A586" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B586" s="0" t="str">
@@ -8627,7 +8632,7 @@
       </c>
     </row>
     <row r="591" spans="1:4" customFormat="false">
-      <c r="A591" s="0" t="str">
+      <c r="A591" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B591" s="0" t="str">
@@ -8697,7 +8702,7 @@
       </c>
     </row>
     <row r="596" spans="1:4" customFormat="false">
-      <c r="A596" s="0" t="str">
+      <c r="A596" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B596" s="0" t="str">
@@ -8767,7 +8772,7 @@
       </c>
     </row>
     <row r="601" spans="1:4" customFormat="false">
-      <c r="A601" s="0" t="str">
+      <c r="A601" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B601" s="0" t="str">
@@ -8837,7 +8842,7 @@
       </c>
     </row>
     <row r="606" spans="1:4" customFormat="false">
-      <c r="A606" s="0" t="str">
+      <c r="A606" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B606" s="0" t="str">
@@ -8907,7 +8912,7 @@
       </c>
     </row>
     <row r="611" spans="1:4" customFormat="false">
-      <c r="A611" s="0" t="str">
+      <c r="A611" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B611" s="0" t="str">
@@ -8977,7 +8982,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" customFormat="false">
-      <c r="A616" s="0" t="str">
+      <c r="A616" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B616" s="0" t="str">
@@ -9047,7 +9052,7 @@
       </c>
     </row>
     <row r="621" spans="1:4" customFormat="false">
-      <c r="A621" s="0" t="str">
+      <c r="A621" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B621" s="0" t="str">
@@ -9117,7 +9122,7 @@
       </c>
     </row>
     <row r="626" spans="1:4" customFormat="false">
-      <c r="A626" s="0" t="str">
+      <c r="A626" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B626" s="0" t="str">
@@ -9187,7 +9192,7 @@
       </c>
     </row>
     <row r="631" spans="1:4" customFormat="false">
-      <c r="A631" s="0" t="str">
+      <c r="A631" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B631" s="0" t="str">
@@ -9257,7 +9262,7 @@
       </c>
     </row>
     <row r="636" spans="1:4" customFormat="false">
-      <c r="A636" s="0" t="str">
+      <c r="A636" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B636" s="0" t="str">
@@ -9327,7 +9332,7 @@
       </c>
     </row>
     <row r="641" spans="1:4" customFormat="false">
-      <c r="A641" s="0" t="str">
+      <c r="A641" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B641" s="0" t="str">
@@ -9397,7 +9402,7 @@
       </c>
     </row>
     <row r="646" spans="1:4" customFormat="false">
-      <c r="A646" s="0" t="str">
+      <c r="A646" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B646" s="0" t="str">
@@ -9467,7 +9472,7 @@
       </c>
     </row>
     <row r="651" spans="1:4" customFormat="false">
-      <c r="A651" s="0" t="str">
+      <c r="A651" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B651" s="0" t="str">
@@ -9537,7 +9542,7 @@
       </c>
     </row>
     <row r="656" spans="1:4" customFormat="false">
-      <c r="A656" s="0" t="str">
+      <c r="A656" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B656" s="0" t="str">
@@ -9607,7 +9612,7 @@
       </c>
     </row>
     <row r="661" spans="1:4" customFormat="false">
-      <c r="A661" s="0" t="str">
+      <c r="A661" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B661" s="0" t="str">
@@ -9677,7 +9682,7 @@
       </c>
     </row>
     <row r="666" spans="1:4" customFormat="false">
-      <c r="A666" s="0" t="str">
+      <c r="A666" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B666" s="0" t="str">
@@ -9747,7 +9752,7 @@
       </c>
     </row>
     <row r="671" spans="1:4" customFormat="false">
-      <c r="A671" s="0" t="str">
+      <c r="A671" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B671" s="0" t="str">
@@ -9817,7 +9822,7 @@
       </c>
     </row>
     <row r="676" spans="1:4" customFormat="false">
-      <c r="A676" s="0" t="str">
+      <c r="A676" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B676" s="0" t="str">
@@ -9887,7 +9892,7 @@
       </c>
     </row>
     <row r="681" spans="1:4" customFormat="false">
-      <c r="A681" s="0" t="str">
+      <c r="A681" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B681" s="0" t="str">
@@ -9957,7 +9962,7 @@
       </c>
     </row>
     <row r="686" spans="1:4" customFormat="false">
-      <c r="A686" s="0" t="str">
+      <c r="A686" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B686" s="0" t="str">
@@ -10027,7 +10032,7 @@
       </c>
     </row>
     <row r="691" spans="1:4" customFormat="false">
-      <c r="A691" s="0" t="str">
+      <c r="A691" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B691" s="0" t="str">
@@ -10097,7 +10102,7 @@
       </c>
     </row>
     <row r="696" spans="1:4" customFormat="false">
-      <c r="A696" s="0" t="str">
+      <c r="A696" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B696" s="0" t="str">
@@ -10167,7 +10172,7 @@
       </c>
     </row>
     <row r="701" spans="1:4" customFormat="false">
-      <c r="A701" s="0" t="str">
+      <c r="A701" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B701" s="0" t="str">
@@ -10237,7 +10242,7 @@
       </c>
     </row>
     <row r="706" spans="1:4" customFormat="false">
-      <c r="A706" s="0" t="str">
+      <c r="A706" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B706" s="0" t="str">
@@ -10307,7 +10312,7 @@
       </c>
     </row>
     <row r="711" spans="1:4" customFormat="false">
-      <c r="A711" s="0" t="str">
+      <c r="A711" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B711" s="0" t="str">
@@ -10377,7 +10382,7 @@
       </c>
     </row>
     <row r="716" spans="1:4" customFormat="false">
-      <c r="A716" s="0" t="str">
+      <c r="A716" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B716" s="0" t="str">
@@ -10447,7 +10452,7 @@
       </c>
     </row>
     <row r="721" spans="1:4" customFormat="false">
-      <c r="A721" s="0" t="str">
+      <c r="A721" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B721" s="0" t="str">
@@ -10517,7 +10522,7 @@
       </c>
     </row>
     <row r="726" spans="1:4" customFormat="false">
-      <c r="A726" s="0" t="str">
+      <c r="A726" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B726" s="0" t="str">
@@ -10587,7 +10592,7 @@
       </c>
     </row>
     <row r="731" spans="1:4" customFormat="false">
-      <c r="A731" s="0" t="str">
+      <c r="A731" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B731" s="0" t="str">
@@ -10657,7 +10662,7 @@
       </c>
     </row>
     <row r="736" spans="1:4" customFormat="false">
-      <c r="A736" s="0" t="str">
+      <c r="A736" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B736" s="0" t="str">
@@ -10727,7 +10732,7 @@
       </c>
     </row>
     <row r="741" spans="1:4" customFormat="false">
-      <c r="A741" s="0" t="str">
+      <c r="A741" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B741" s="0" t="str">
@@ -10797,7 +10802,7 @@
       </c>
     </row>
     <row r="746" spans="1:4" customFormat="false">
-      <c r="A746" s="0" t="str">
+      <c r="A746" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B746" s="0" t="str">
@@ -10867,7 +10872,7 @@
       </c>
     </row>
     <row r="751" spans="1:4" customFormat="false">
-      <c r="A751" s="0" t="str">
+      <c r="A751" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B751" s="0" t="str">
@@ -10937,7 +10942,7 @@
       </c>
     </row>
     <row r="756" spans="1:4" customFormat="false">
-      <c r="A756" s="0" t="str">
+      <c r="A756" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B756" s="0" t="str">
@@ -11007,7 +11012,7 @@
       </c>
     </row>
     <row r="761" spans="1:4" customFormat="false">
-      <c r="A761" s="0" t="str">
+      <c r="A761" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B761" s="0" t="str">
@@ -11077,7 +11082,7 @@
       </c>
     </row>
     <row r="766" spans="1:4" customFormat="false">
-      <c r="A766" s="0" t="str">
+      <c r="A766" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B766" s="0" t="str">
@@ -11147,7 +11152,7 @@
       </c>
     </row>
     <row r="771" spans="1:4" customFormat="false">
-      <c r="A771" s="0" t="str">
+      <c r="A771" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B771" s="0" t="str">
@@ -11217,7 +11222,7 @@
       </c>
     </row>
     <row r="776" spans="1:4" customFormat="false">
-      <c r="A776" s="0" t="str">
+      <c r="A776" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B776" s="0" t="str">
@@ -11287,7 +11292,7 @@
       </c>
     </row>
     <row r="781" spans="1:4" customFormat="false">
-      <c r="A781" s="0" t="str">
+      <c r="A781" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B781" s="0" t="str">
@@ -11357,7 +11362,7 @@
       </c>
     </row>
     <row r="786" spans="1:4" customFormat="false">
-      <c r="A786" s="0" t="str">
+      <c r="A786" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B786" s="0" t="str">
@@ -11427,7 +11432,7 @@
       </c>
     </row>
     <row r="791" spans="1:4" customFormat="false">
-      <c r="A791" s="0" t="str">
+      <c r="A791" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B791" s="0" t="str">
@@ -11497,7 +11502,7 @@
       </c>
     </row>
     <row r="796" spans="1:4" customFormat="false">
-      <c r="A796" s="0" t="str">
+      <c r="A796" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B796" s="0" t="str">
@@ -11567,7 +11572,7 @@
       </c>
     </row>
     <row r="801" spans="1:4" customFormat="false">
-      <c r="A801" s="0" t="str">
+      <c r="A801" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B801" s="0" t="str">
@@ -11637,7 +11642,7 @@
       </c>
     </row>
     <row r="806" spans="1:4" customFormat="false">
-      <c r="A806" s="0" t="str">
+      <c r="A806" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B806" s="0" t="str">
@@ -11707,7 +11712,7 @@
       </c>
     </row>
     <row r="811" spans="1:4" customFormat="false">
-      <c r="A811" s="0" t="str">
+      <c r="A811" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B811" s="0" t="str">
@@ -11777,7 +11782,7 @@
       </c>
     </row>
     <row r="816" spans="1:4" customFormat="false">
-      <c r="A816" s="0" t="str">
+      <c r="A816" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B816" s="0" t="str">
@@ -11847,7 +11852,7 @@
       </c>
     </row>
     <row r="821" spans="1:4" customFormat="false">
-      <c r="A821" s="0" t="str">
+      <c r="A821" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B821" s="0" t="str">
@@ -11917,7 +11922,7 @@
       </c>
     </row>
     <row r="826" spans="1:4" customFormat="false">
-      <c r="A826" s="0" t="str">
+      <c r="A826" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B826" s="0" t="str">
@@ -11987,7 +11992,7 @@
       </c>
     </row>
     <row r="831" spans="1:4" customFormat="false">
-      <c r="A831" s="0" t="str">
+      <c r="A831" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B831" s="0" t="str">
@@ -12057,7 +12062,7 @@
       </c>
     </row>
     <row r="836" spans="1:4" customFormat="false">
-      <c r="A836" s="0" t="str">
+      <c r="A836" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B836" s="0" t="str">
@@ -12127,7 +12132,7 @@
       </c>
     </row>
     <row r="841" spans="1:4" customFormat="false">
-      <c r="A841" s="0" t="str">
+      <c r="A841" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B841" s="0" t="str">
@@ -12197,7 +12202,7 @@
       </c>
     </row>
     <row r="846" spans="1:4" customFormat="false">
-      <c r="A846" s="0" t="str">
+      <c r="A846" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B846" s="0" t="str">
@@ -12267,7 +12272,7 @@
       </c>
     </row>
     <row r="851" spans="1:4" customFormat="false">
-      <c r="A851" s="0" t="str">
+      <c r="A851" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B851" s="0" t="str">
@@ -12337,7 +12342,7 @@
       </c>
     </row>
     <row r="856" spans="1:4" customFormat="false">
-      <c r="A856" s="0" t="str">
+      <c r="A856" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B856" s="0" t="str">
@@ -12407,7 +12412,7 @@
       </c>
     </row>
     <row r="861" spans="1:4" customFormat="false">
-      <c r="A861" s="0" t="str">
+      <c r="A861" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B861" s="0" t="str">
@@ -12477,7 +12482,7 @@
       </c>
     </row>
     <row r="866" spans="1:4" customFormat="false">
-      <c r="A866" s="0" t="str">
+      <c r="A866" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B866" s="0" t="str">
@@ -12547,7 +12552,7 @@
       </c>
     </row>
     <row r="871" spans="1:4" customFormat="false">
-      <c r="A871" s="0" t="str">
+      <c r="A871" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B871" s="0" t="str">
@@ -12617,7 +12622,7 @@
       </c>
     </row>
     <row r="876" spans="1:4" customFormat="false">
-      <c r="A876" s="0" t="str">
+      <c r="A876" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B876" s="0" t="str">
@@ -12687,7 +12692,7 @@
       </c>
     </row>
     <row r="881" spans="1:4" customFormat="false">
-      <c r="A881" s="0" t="str">
+      <c r="A881" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B881" s="0" t="str">
@@ -12757,7 +12762,7 @@
       </c>
     </row>
     <row r="886" spans="1:4" customFormat="false">
-      <c r="A886" s="0" t="str">
+      <c r="A886" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B886" s="0" t="str">
@@ -12827,7 +12832,7 @@
       </c>
     </row>
     <row r="891" spans="1:4" customFormat="false">
-      <c r="A891" s="0" t="str">
+      <c r="A891" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B891" s="0" t="str">
@@ -12897,7 +12902,7 @@
       </c>
     </row>
     <row r="896" spans="1:4" customFormat="false">
-      <c r="A896" s="0" t="str">
+      <c r="A896" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B896" s="0" t="str">
@@ -12967,7 +12972,7 @@
       </c>
     </row>
     <row r="901" spans="1:4" customFormat="false">
-      <c r="A901" s="0" t="str">
+      <c r="A901" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B901" s="0" t="str">
@@ -13037,7 +13042,7 @@
       </c>
     </row>
     <row r="906" spans="1:4" customFormat="false">
-      <c r="A906" s="0" t="str">
+      <c r="A906" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B906" s="0" t="str">
@@ -13107,7 +13112,7 @@
       </c>
     </row>
     <row r="911" spans="1:4" customFormat="false">
-      <c r="A911" s="0" t="str">
+      <c r="A911" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B911" s="0" t="str">
@@ -13177,7 +13182,7 @@
       </c>
     </row>
     <row r="916" spans="1:4" customFormat="false">
-      <c r="A916" s="0" t="str">
+      <c r="A916" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B916" s="0" t="str">
@@ -13247,7 +13252,7 @@
       </c>
     </row>
     <row r="921" spans="1:4" customFormat="false">
-      <c r="A921" s="0" t="str">
+      <c r="A921" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B921" s="0" t="str">
@@ -13317,7 +13322,7 @@
       </c>
     </row>
     <row r="926" spans="1:4" customFormat="false">
-      <c r="A926" s="0" t="str">
+      <c r="A926" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B926" s="0" t="str">
@@ -13387,7 +13392,7 @@
       </c>
     </row>
     <row r="931" spans="1:4" customFormat="false">
-      <c r="A931" s="0" t="str">
+      <c r="A931" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B931" s="0" t="str">
@@ -13457,7 +13462,7 @@
       </c>
     </row>
     <row r="936" spans="1:4" customFormat="false">
-      <c r="A936" s="0" t="str">
+      <c r="A936" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B936" s="0" t="str">
@@ -13527,7 +13532,7 @@
       </c>
     </row>
     <row r="941" spans="1:4" customFormat="false">
-      <c r="A941" s="0" t="str">
+      <c r="A941" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B941" s="0" t="str">
@@ -13597,7 +13602,7 @@
       </c>
     </row>
     <row r="946" spans="1:4" customFormat="false">
-      <c r="A946" s="0" t="str">
+      <c r="A946" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B946" s="0" t="str">
@@ -13667,7 +13672,7 @@
       </c>
     </row>
     <row r="951" spans="1:4" customFormat="false">
-      <c r="A951" s="0" t="str">
+      <c r="A951" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B951" s="0" t="str">
@@ -13737,7 +13742,7 @@
       </c>
     </row>
     <row r="956" spans="1:4" customFormat="false">
-      <c r="A956" s="0" t="str">
+      <c r="A956" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B956" s="0" t="str">
@@ -13807,7 +13812,7 @@
       </c>
     </row>
     <row r="961" spans="1:4" customFormat="false">
-      <c r="A961" s="0" t="str">
+      <c r="A961" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B961" s="0" t="str">
@@ -13877,7 +13882,7 @@
       </c>
     </row>
     <row r="966" spans="1:4" customFormat="false">
-      <c r="A966" s="0" t="str">
+      <c r="A966" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B966" s="0" t="str">
@@ -13947,7 +13952,7 @@
       </c>
     </row>
     <row r="971" spans="1:4" customFormat="false">
-      <c r="A971" s="0" t="str">
+      <c r="A971" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B971" s="0" t="str">
@@ -14017,7 +14022,7 @@
       </c>
     </row>
     <row r="976" spans="1:4" customFormat="false">
-      <c r="A976" s="0" t="str">
+      <c r="A976" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B976" s="0" t="str">
@@ -14087,7 +14092,7 @@
       </c>
     </row>
     <row r="981" spans="1:4" customFormat="false">
-      <c r="A981" s="0" t="str">
+      <c r="A981" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B981" s="0" t="str">
@@ -14157,7 +14162,7 @@
       </c>
     </row>
     <row r="986" spans="1:4" customFormat="false">
-      <c r="A986" s="0" t="str">
+      <c r="A986" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B986" s="0" t="str">
@@ -14227,7 +14232,7 @@
       </c>
     </row>
     <row r="991" spans="1:4" customFormat="false">
-      <c r="A991" s="0" t="str">
+      <c r="A991" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B991" s="0" t="str">
@@ -14297,7 +14302,7 @@
       </c>
     </row>
     <row r="996" spans="1:4" customFormat="false">
-      <c r="A996" s="0" t="str">
+      <c r="A996" s="1" t="str">
         <v>xyz</v>
       </c>
       <c r="B996" s="0" t="str">
